--- a/KupiPai/KupiPai_log.xlsx
+++ b/KupiPai/KupiPai_log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asolo\MyDocs\Personal Docs\DataScience\MyProjects\KupiPai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asolo\MyDocs\Personal Docs\DataScience\MyProjects\KupiPai\KupiPai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D91450F-3405-46CE-AD61-36936F0C9C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DE6600-3DD5-4CFD-8179-5302CDC99BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,15 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Take into account that cadastre feature show actually the region now, not cadastre number, it should be renamed</t>
+    <t>Implement UI elements for all the features in Streamlit</t>
   </si>
   <si>
-    <t>Create a git repo and put all the work there</t>
+    <t>Replaced cadastre feature with region_id and uploaded to the repo</t>
   </si>
   <si>
-    <t>Implement UI elements for all the features in Streamlit</t>
+    <t>Work with outliers of the numerical features (pricePerOne, estimatedPrice, etc)</t>
+  </si>
+  <si>
+    <t>Think what to do with owner edrpous</t>
   </si>
 </sst>
 </file>
@@ -353,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -370,8 +373,11 @@
         <v>44626</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -380,20 +386,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738FC74D-B9F4-4F1E-BC9B-A8C126BB5EF3}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.21875" customWidth="1"/>
+    <col min="1" max="1" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -401,6 +407,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KupiPai/KupiPai_log.xlsx
+++ b/KupiPai/KupiPai_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asolo\MyDocs\Personal Docs\DataScience\MyProjects\KupiPai\KupiPai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DE6600-3DD5-4CFD-8179-5302CDC99BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D6CBC7-26E7-4C8B-9FF8-C7B0CDC53B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Implement UI elements for all the features in Streamlit</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Replaced cadastre feature with region_id and uploaded to the repo</t>
   </si>
@@ -38,6 +35,15 @@
   </si>
   <si>
     <t>Think what to do with owner edrpous</t>
+  </si>
+  <si>
+    <t>Implement prediction with streamlit</t>
+  </si>
+  <si>
+    <t>Read features from Webapp to dataframe and concatenated two dataframes labelling them 1 for training and 0 for validation</t>
+  </si>
+  <si>
+    <t>Process all data n concatenated dataframe to get a normalized result</t>
   </si>
 </sst>
 </file>
@@ -359,13 +365,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="94" customWidth="1"/>
+    <col min="2" max="2" width="109.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -373,11 +379,16 @@
         <v>44626</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>44639</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -386,10 +397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738FC74D-B9F4-4F1E-BC9B-A8C126BB5EF3}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,17 +410,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/KupiPai/KupiPai_log.xlsx
+++ b/KupiPai/KupiPai_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asolo\MyDocs\Personal Docs\DataScience\MyProjects\KupiPai\KupiPai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D6CBC7-26E7-4C8B-9FF8-C7B0CDC53B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF13D33-F886-466A-8666-D191092699DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,13 +37,13 @@
     <t>Think what to do with owner edrpous</t>
   </si>
   <si>
-    <t>Implement prediction with streamlit</t>
-  </si>
-  <si>
     <t>Read features from Webapp to dataframe and concatenated two dataframes labelling them 1 for training and 0 for validation</t>
   </si>
   <si>
-    <t>Process all data n concatenated dataframe to get a normalized result</t>
+    <t xml:space="preserve">Finished with transferring model from Jupyter notebook to Streamit web app. </t>
+  </si>
+  <si>
+    <t>Check if streamlit web app works correclty in the real time on an existing lot</t>
   </si>
 </sst>
 </file>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -387,6 +387,14 @@
         <v>44639</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44640</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -397,10 +405,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738FC74D-B9F4-4F1E-BC9B-A8C126BB5EF3}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,16 +423,11 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>

--- a/KupiPai/KupiPai_log.xlsx
+++ b/KupiPai/KupiPai_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asolo\MyDocs\Personal Docs\DataScience\MyProjects\KupiPai\KupiPai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF13D33-F886-466A-8666-D191092699DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC65F3AF-5493-46FF-9C45-1015572D5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,6 @@
     <t>Replaced cadastre feature with region_id and uploaded to the repo</t>
   </si>
   <si>
-    <t>Work with outliers of the numerical features (pricePerOne, estimatedPrice, etc)</t>
-  </si>
-  <si>
     <t>Think what to do with owner edrpous</t>
   </si>
   <si>
@@ -43,7 +40,11 @@
     <t xml:space="preserve">Finished with transferring model from Jupyter notebook to Streamit web app. </t>
   </si>
   <si>
-    <t>Check if streamlit web app works correclty in the real time on an existing lot</t>
+    <t>Replaced outliers with median values for the features which improved slightly the score
+Checked the accuracy of the prediction using the real samples. Works fine</t>
+  </si>
+  <si>
+    <t>Check what is wrong with estinmatedPrice it looks like the range is incorrect in streamlit slider</t>
   </si>
 </sst>
 </file>
@@ -79,9 +80,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -387,7 +391,7 @@
         <v>44639</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -395,6 +399,14 @@
         <v>44640</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44646</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -405,30 +417,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738FC74D-B9F4-4F1E-BC9B-A8C126BB5EF3}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.6640625" customWidth="1"/>
+    <col min="1" max="1" width="77.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/KupiPai/KupiPai_log.xlsx
+++ b/KupiPai/KupiPai_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asolo\MyDocs\Personal Docs\DataScience\MyProjects\KupiPai\KupiPai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC65F3AF-5493-46FF-9C45-1015572D5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B89A71-4718-4D2A-AD76-36B1F60CC6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Replaced cadastre feature with region_id and uploaded to the repo</t>
   </si>
@@ -44,7 +44,10 @@
 Checked the accuracy of the prediction using the real samples. Works fine</t>
   </si>
   <si>
-    <t>Check what is wrong with estinmatedPrice it looks like the range is incorrect in streamlit slider</t>
+    <t>Changed some streamlit sliders to input fields</t>
+  </si>
+  <si>
+    <t>Investigate how to depliy streamlit prototype to AWS</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B7:B8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,6 +413,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44647</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -417,10 +428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738FC74D-B9F4-4F1E-BC9B-A8C126BB5EF3}">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,13 +439,13 @@
     <col min="1" max="1" width="77.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>

--- a/KupiPai/KupiPai_log.xlsx
+++ b/KupiPai/KupiPai_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asolo\MyDocs\Personal Docs\DataScience\MyProjects\KupiPai\KupiPai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B89A71-4718-4D2A-AD76-36B1F60CC6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE27E4C5-3AB4-4916-A19A-843DBF7E4ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,12 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Replaced cadastre feature with region_id and uploaded to the repo</t>
-  </si>
-  <si>
-    <t>Think what to do with owner edrpous</t>
   </si>
   <si>
     <t>Read features from Webapp to dataframe and concatenated two dataframes labelling them 1 for training and 0 for validation</t>
@@ -49,15 +46,32 @@
   <si>
     <t>Investigate how to depliy streamlit prototype to AWS</t>
   </si>
+  <si>
+    <t>https://towardsdatascience.com/how-to-deploy-a-streamlit-app-using-an-amazon-free-ec2-instance-416a41f69dc3</t>
+  </si>
+  <si>
+    <t>How to update model with the new data</t>
+  </si>
+  <si>
+    <t>Code cleanup</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,17 +94,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,7 +411,7 @@
         <v>44639</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -402,7 +419,7 @@
         <v>44640</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -410,7 +427,7 @@
         <v>44646</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -418,7 +435,7 @@
         <v>44647</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -428,28 +445,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738FC74D-B9F4-4F1E-BC9B-A8C126BB5EF3}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.33203125" customWidth="1"/>
+    <col min="1" max="1" width="51.33203125" customWidth="1"/>
+    <col min="2" max="2" width="96.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{4E6CE3AF-098A-4C78-A1A4-680A60CFF03E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KupiPai/KupiPai_log.xlsx
+++ b/KupiPai/KupiPai_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asolo\MyDocs\Personal Docs\DataScience\MyProjects\KupiPai\KupiPai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE27E4C5-3AB4-4916-A19A-843DBF7E4ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5069BDF-D3AD-4B17-BAEE-6F4361408D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Replaced cadastre feature with region_id and uploaded to the repo</t>
   </si>
@@ -54,6 +54,13 @@
   </si>
   <si>
     <t>Code cleanup</t>
+  </si>
+  <si>
+    <t>Keep going on deploying Streamlit app to AWS</t>
+  </si>
+  <si>
+    <t>Created a new free AWS EC2 Instance for Streamlit app and was able to connect to it with Putty
+Figured out that when you stopping the instance, the IP address on the instance is changed, though the files remain there</t>
   </si>
 </sst>
 </file>
@@ -104,7 +111,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -386,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,6 +447,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44653</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -445,41 +462,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738FC74D-B9F4-4F1E-BC9B-A8C126BB5EF3}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1"/>
-    <col min="2" max="2" width="96.5546875" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="2" max="2" width="96.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{4E6CE3AF-098A-4C78-A1A4-680A60CFF03E}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{4E6CE3AF-098A-4C78-A1A4-680A60CFF03E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/KupiPai/KupiPai_log.xlsx
+++ b/KupiPai/KupiPai_log.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asolo\MyDocs\Personal Docs\DataScience\MyProjects\KupiPai\KupiPai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5069BDF-D3AD-4B17-BAEE-6F4361408D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D4F507-104F-4F38-AE75-20F07F220124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
     <sheet name="To Do" sheetId="2" r:id="rId2"/>
+    <sheet name="Materials" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Replaced cadastre feature with region_id and uploaded to the repo</t>
   </si>
@@ -44,9 +45,6 @@
     <t>Changed some streamlit sliders to input fields</t>
   </si>
   <si>
-    <t>Investigate how to depliy streamlit prototype to AWS</t>
-  </si>
-  <si>
     <t>https://towardsdatascience.com/how-to-deploy-a-streamlit-app-using-an-amazon-free-ec2-instance-416a41f69dc3</t>
   </si>
   <si>
@@ -54,13 +52,22 @@
   </si>
   <si>
     <t>Code cleanup</t>
-  </si>
-  <si>
-    <t>Keep going on deploying Streamlit app to AWS</t>
   </si>
   <si>
     <t>Created a new free AWS EC2 Instance for Streamlit app and was able to connect to it with Putty
 Figured out that when you stopping the instance, the IP address on the instance is changed, though the files remain there</t>
+  </si>
+  <si>
+    <t>Uploaded the app to the AWS EC2 and checked that it is working.</t>
+  </si>
+  <si>
+    <t>Uploading Streamlit app to AWS</t>
+  </si>
+  <si>
+    <t>Remove duplicates for koaatuu locations</t>
+  </si>
+  <si>
+    <t>How to make the streamlit app always running</t>
   </si>
 </sst>
 </file>
@@ -395,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +459,15 @@
         <v>44653</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44654</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -464,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738FC74D-B9F4-4F1E-BC9B-A8C126BB5EF3}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,35 +489,65 @@
     <col min="2" max="2" width="96.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{4E6CE3AF-098A-4C78-A1A4-680A60CFF03E}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{C08354DE-1059-4DAA-B97F-FF51B51CD8AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A0093E-E855-4E91-A804-8CF01B7475E0}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.21875" customWidth="1"/>
+    <col min="2" max="2" width="124.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{1F338213-87B2-4EFB-9CA9-8AA355336B18}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KupiPai/KupiPai_log.xlsx
+++ b/KupiPai/KupiPai_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asolo\MyDocs\Personal Docs\DataScience\MyProjects\KupiPai\KupiPai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D4F507-104F-4F38-AE75-20F07F220124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA31795D-4795-416D-B628-D9259446DAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Replaced cadastre feature with region_id and uploaded to the repo</t>
   </si>
@@ -58,16 +58,13 @@
 Figured out that when you stopping the instance, the IP address on the instance is changed, though the files remain there</t>
   </si>
   <si>
-    <t>Uploaded the app to the AWS EC2 and checked that it is working.</t>
-  </si>
-  <si>
     <t>Uploading Streamlit app to AWS</t>
   </si>
   <si>
-    <t>Remove duplicates for koaatuu locations</t>
-  </si>
-  <si>
-    <t>How to make the streamlit app always running</t>
+    <t>Uploaded the app to the AWS EC2 and checked that it is working. The external IP address is http://18.117.238.29:8501/</t>
+  </si>
+  <si>
+    <t>Read about TMUX</t>
   </si>
 </sst>
 </file>
@@ -405,7 +402,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +464,7 @@
         <v>44654</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -477,48 +474,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738FC74D-B9F4-4F1E-BC9B-A8C126BB5EF3}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="57.6640625" customWidth="1"/>
-    <col min="2" max="2" width="96.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="107.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{C08354DE-1059-4DAA-B97F-FF51B51CD8AC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -538,7 +524,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>

--- a/KupiPai/KupiPai_log.xlsx
+++ b/KupiPai/KupiPai_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asolo\MyDocs\Personal Docs\DataScience\MyProjects\KupiPai\KupiPai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA31795D-4795-416D-B628-D9259446DAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1083914F-0F96-497F-BAF8-6FEF6C980296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Replaced cadastre feature with region_id and uploaded to the repo</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Read about TMUX</t>
+  </si>
+  <si>
+    <t>Try Lasso selection for the features</t>
   </si>
 </sst>
 </file>
@@ -401,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738FC74D-B9F4-4F1E-BC9B-A8C126BB5EF3}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,6 +502,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
